--- a/stocks_template.xlsx
+++ b/stocks_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Notebooks\Mobulous\Investing-App-Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6460BA-FD61-494E-A360-D5866F2BA862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEF98B6-80E1-4B36-940D-A0704F5AD4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>exchange</t>
-  </si>
-  <si>
     <t>symbol</t>
   </si>
   <si>
     <t>series</t>
   </si>
   <si>
-    <t>index_listing</t>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>extra_text</t>
   </si>
 </sst>
 </file>
@@ -357,26 +357,26 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
